--- a/mcmaster_excel/Mil_Spec_Stainless_Steel_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Mil_Spec_Stainless_Steel_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,125 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.116"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-120, NASM51958</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>91400A030</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$14.29</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -582,7 +554,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-121, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-120, NASM51958</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -592,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>91400A035</t>
+          <t>91400A030</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>$14.29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -610,7 +582,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -640,7 +612,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-122, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-121, NASM51958</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -650,12 +622,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91400A041</t>
+          <t>91400A035</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -668,7 +640,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -698,7 +670,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-123, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-122, NASM51958</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -708,12 +680,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91400A043</t>
+          <t>91400A041</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -726,7 +698,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -756,7 +728,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-124, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-123, NASM51958</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -766,12 +738,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91400A046</t>
+          <t>91400A043</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -784,7 +756,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -814,22 +786,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-125, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-124, NASM51958</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91400A047</t>
+          <t>91400A046</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -842,7 +814,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -872,7 +844,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-126, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-125, NASM51958</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -882,7 +854,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>91400A049</t>
+          <t>91400A047</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -900,7 +872,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -910,17 +882,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>0.116"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.044"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -930,27 +902,27 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-1</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-126, NASM51958</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>91400A050</t>
+          <t>91400A049</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -958,7 +930,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -988,7 +960,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-2</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -998,12 +970,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91400A052</t>
+          <t>91400A050</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1016,7 +988,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1046,7 +1018,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-3</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1056,12 +1028,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>91400A054</t>
+          <t>91400A052</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1074,7 +1046,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1104,7 +1076,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-4</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1114,12 +1086,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91400A056</t>
+          <t>91400A054</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1132,7 +1104,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1162,7 +1134,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-5</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1172,12 +1144,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91400A058</t>
+          <t>91400A056</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1190,7 +1162,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1220,7 +1192,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-6</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1230,7 +1202,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91400A060</t>
+          <t>91400A058</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1248,7 +1220,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1278,7 +1250,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-7</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1288,12 +1260,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91400A062</t>
+          <t>91400A060</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1306,7 +1278,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1336,7 +1308,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-141</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1346,12 +1318,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>91400A063</t>
+          <t>91400A062</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1364,7 +1336,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1394,7 +1366,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-8</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-141</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1404,12 +1376,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>91400A064</t>
+          <t>91400A063</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1422,7 +1394,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1452,7 +1424,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-9</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1462,12 +1434,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>91400A066</t>
+          <t>91400A064</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12.57</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1480,7 +1452,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1510,22 +1482,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-10</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-9</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91400A068</t>
+          <t>91400A066</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1538,7 +1510,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1568,22 +1540,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-142</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91400A069</t>
+          <t>91400A068</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1596,7 +1568,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1606,12 +1578,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1626,27 +1598,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-11</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-142</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91400A101</t>
+          <t>91400A069</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1654,7 +1626,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1684,7 +1656,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-12</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1694,12 +1666,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91400A104</t>
+          <t>91400A101</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1742,22 +1714,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-12B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90988A011</t>
+          <t>91400A104</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1770,7 +1742,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1800,22 +1772,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-13</t>
+          <t>Fed. Spec. FF-S-92, MS51957-12B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91400A106</t>
+          <t>90988A011</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1858,22 +1830,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-13B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90988A012</t>
+          <t>91400A106</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1886,7 +1858,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1916,22 +1888,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-14</t>
+          <t>Fed. Spec. FF-S-92, MS51957-13B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91400A107</t>
+          <t>90988A012</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1944,7 +1916,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1974,7 +1946,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-15</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-14</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1984,12 +1956,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>91400A108</t>
+          <t>91400A107</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2032,22 +2004,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-15B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-15</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90988A014</t>
+          <t>91400A108</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2060,7 +2032,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2090,22 +2062,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-16</t>
+          <t>Fed. Spec. FF-S-92, MS51957-15B</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91400A112</t>
+          <t>90988A014</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2118,7 +2090,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2148,7 +2120,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-17</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-16</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2158,12 +2130,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>91400A110</t>
+          <t>91400A112</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2206,22 +2178,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-17B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-17</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>90988A016</t>
+          <t>91400A110</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2234,7 +2206,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2264,22 +2236,22 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-120</t>
+          <t>Fed. Spec. FF-S-92, MS51957-17B</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>91400A111</t>
+          <t>90988A016</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2292,7 +2264,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2322,7 +2294,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-18</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-120</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2332,12 +2304,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91400A114</t>
+          <t>91400A111</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2350,7 +2322,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2380,7 +2352,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-19</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-18</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2390,12 +2362,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>91400A116</t>
+          <t>91400A114</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2438,22 +2410,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-19B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-19</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>90988A018</t>
+          <t>91400A116</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2466,7 +2438,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2496,22 +2468,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-20</t>
+          <t>Fed. Spec. FF-S-92, MS51957-19B</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91400A118</t>
+          <t>90988A018</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2524,7 +2496,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2554,7 +2526,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-21</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-20</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2564,12 +2536,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>91400A119</t>
+          <t>91400A118</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2582,7 +2554,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2612,7 +2584,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-121</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-21</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2622,12 +2594,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>91400A121</t>
+          <t>91400A119</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2640,7 +2612,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2670,7 +2642,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-22</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-121</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2680,12 +2652,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>91400A124</t>
+          <t>91400A121</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2698,7 +2670,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2728,7 +2700,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-122</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-22</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2738,12 +2710,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91400A127</t>
+          <t>91400A124</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2756,7 +2728,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 3/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2786,22 +2758,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-23</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-122</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>91400A130</t>
+          <t>91400A127</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2814,7 +2786,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2824,17 +2796,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2844,27 +2816,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-24</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-23</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91400A142</t>
+          <t>91400A130</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2872,7 +2844,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2902,22 +2874,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-25</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-24</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>91400A143</t>
+          <t>91400A142</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2930,7 +2902,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2960,7 +2932,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-26</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-25</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2970,12 +2942,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>91400A144</t>
+          <t>91400A143</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3018,22 +2990,22 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-26B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-26</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>90988A041</t>
+          <t>91400A144</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3046,7 +3018,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3076,22 +3048,22 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-27</t>
+          <t>Fed. Spec. FF-S-92, MS51957-26B</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>91400A145</t>
+          <t>90988A041</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3104,7 +3076,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3134,7 +3106,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-28</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-27</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3144,12 +3116,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>91400A146</t>
+          <t>91400A145</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3192,22 +3164,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-28B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-28</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>90988A042</t>
+          <t>91400A146</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3220,7 +3192,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3250,22 +3222,22 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-29</t>
+          <t>Fed. Spec. FF-S-92, MS51957-28B</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>91400A149</t>
+          <t>90988A042</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3278,7 +3250,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3308,7 +3280,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-30</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-29</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3318,12 +3290,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>91400A148</t>
+          <t>91400A149</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>14.57</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3366,22 +3338,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-30B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-30</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>90988A044</t>
+          <t>91400A148</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>14.57</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3394,7 +3366,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3424,22 +3396,22 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-123</t>
+          <t>Fed. Spec. FF-S-92, MS51957-30B</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>91400A147</t>
+          <t>90988A044</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3452,7 +3424,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3482,7 +3454,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-31</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-123</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3492,12 +3464,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>91400A150</t>
+          <t>91400A147</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3510,7 +3482,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3540,7 +3512,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-32</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-31</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3550,12 +3522,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>91400A151</t>
+          <t>91400A150</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3598,22 +3570,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-32B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-32</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>90988A046</t>
+          <t>91400A151</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3626,7 +3598,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3656,22 +3628,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-33</t>
+          <t>Fed. Spec. FF-S-92, MS51957-32B</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>91400A152</t>
+          <t>90988A046</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3684,7 +3656,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3714,7 +3686,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-34</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-33</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3724,12 +3696,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>91400A154</t>
+          <t>91400A152</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3772,22 +3744,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-34B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-34</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>90988A048</t>
+          <t>91400A154</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3800,7 +3772,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3830,22 +3802,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-124</t>
+          <t>Fed. Spec. FF-S-92, MS51957-34B</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>91400A155</t>
+          <t>90988A048</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3858,7 +3830,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3888,7 +3860,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-35</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-124</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3898,12 +3870,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>91400A156</t>
+          <t>91400A155</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3916,7 +3888,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1 3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3946,7 +3918,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-125</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-35</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3956,12 +3928,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>91400A157</t>
+          <t>91400A156</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3974,7 +3946,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 3/8"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4004,7 +3976,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-36</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-125</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4014,12 +3986,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>91400A158</t>
+          <t>91400A157</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4032,7 +4004,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4062,7 +4034,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-37</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-36</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4072,12 +4044,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>91400A160</t>
+          <t>91400A158</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4090,7 +4062,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4120,7 +4092,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-38</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-37</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4130,12 +4102,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>91400A162</t>
+          <t>91400A160</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4148,7 +4120,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4178,7 +4150,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-26, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-38</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4188,7 +4160,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>91400A170</t>
+          <t>91400A162</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4198,7 +4170,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>6-40</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -4206,7 +4178,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4236,7 +4208,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-27, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-26, NASM51958</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4246,7 +4218,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>91400A173</t>
+          <t>91400A170</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4264,7 +4236,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4294,7 +4266,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-28, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-27, NASM51958</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4304,12 +4276,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>91400A176</t>
+          <t>91400A173</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4322,7 +4294,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4332,12 +4304,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4352,27 +4324,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-40</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-28, NASM51958</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>91400A189</t>
+          <t>91400A176</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-40</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4380,7 +4352,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4410,7 +4382,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-41</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-40</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4420,12 +4392,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>91400A190</t>
+          <t>91400A189</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4468,22 +4440,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-41B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-41</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>90988A071</t>
+          <t>91400A190</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4496,7 +4468,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4526,22 +4498,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-42</t>
+          <t>Fed. Spec. FF-S-92, MS51957-41B</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>91400A191</t>
+          <t>90988A071</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4554,7 +4526,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4584,7 +4556,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-43</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-42</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4594,12 +4566,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>91400A192</t>
+          <t>91400A191</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4642,22 +4614,22 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-43B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-43</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>90988A072</t>
+          <t>91400A192</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4670,7 +4642,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4700,22 +4672,22 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-44</t>
+          <t>Fed. Spec. FF-S-92, MS51957-43B</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>91400A193</t>
+          <t>90988A072</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4728,7 +4700,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4758,7 +4730,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-45</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-44</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4768,12 +4740,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>91400A194</t>
+          <t>91400A193</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4816,22 +4788,22 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-45B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-45</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>90988A074</t>
+          <t>91400A194</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4844,7 +4816,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4874,22 +4846,22 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-126</t>
+          <t>Fed. Spec. FF-S-92, MS51957-45B</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>91400A195</t>
+          <t>90988A074</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4902,7 +4874,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4932,7 +4904,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-46</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-126</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4942,12 +4914,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>91400A196</t>
+          <t>91400A195</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4960,7 +4932,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4990,7 +4962,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-47</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-46</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5000,12 +4972,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>91400A197</t>
+          <t>91400A196</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5048,22 +5020,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-47B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-47</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>90988A076</t>
+          <t>91400A197</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5076,7 +5048,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5106,22 +5078,22 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-48</t>
+          <t>Fed. Spec. FF-S-92, MS51957-47B</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>91400A198</t>
+          <t>90988A076</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5134,7 +5106,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5164,7 +5136,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-49</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-48</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5174,12 +5146,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>91400A199</t>
+          <t>91400A198</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5222,22 +5194,22 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-49B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-49</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>90988A078</t>
+          <t>91400A199</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5250,7 +5222,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5280,22 +5252,22 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-50</t>
+          <t>Fed. Spec. FF-S-92, MS51957-49B</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>91400A201</t>
+          <t>90988A078</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5308,7 +5280,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5338,7 +5310,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-51</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-50</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5348,12 +5320,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>91400A203</t>
+          <t>91400A201</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5366,7 +5338,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5396,7 +5368,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-52</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-51</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5406,12 +5378,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>91400A204</t>
+          <t>91400A203</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>19.98</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5424,7 +5396,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5454,7 +5426,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-53</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-52</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5464,12 +5436,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>91400A206</t>
+          <t>91400A204</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5482,7 +5454,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5492,12 +5464,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5512,27 +5484,27 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-59</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-53</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>91400A238</t>
+          <t>91400A206</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
@@ -5540,7 +5512,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5570,7 +5542,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-60</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-59</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5580,12 +5552,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>91400A239</t>
+          <t>91400A238</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5598,7 +5570,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5628,7 +5600,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-61</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-60</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5638,12 +5610,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>91400A240</t>
+          <t>91400A239</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>17.46</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5656,7 +5628,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5686,7 +5658,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-63</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-61</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5696,12 +5668,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>91400A242</t>
+          <t>91400A240</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5714,7 +5686,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5744,7 +5716,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-64</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-63</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5754,12 +5726,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>91400A244</t>
+          <t>91400A242</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>21.14</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5772,7 +5744,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5802,22 +5774,22 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-65</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-64</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>91400A245</t>
+          <t>91400A244</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>21.14</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5830,7 +5802,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5860,7 +5832,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-67, NASM51576</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-65</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5870,12 +5842,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>91400A247</t>
+          <t>91400A245</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5888,7 +5860,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5918,7 +5890,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-68</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-67, NASM51576</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5928,7 +5900,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>91400A251</t>
+          <t>91400A247</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5946,7 +5918,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5976,7 +5948,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-69</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-68</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5986,12 +5958,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>91400A255</t>
+          <t>91400A251</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6004,7 +5976,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6034,22 +6006,22 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-71</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-69</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>91400A257</t>
+          <t>91400A255</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>27.14</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6062,7 +6034,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6092,27 +6064,27 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-59, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-71</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>91400A821</t>
+          <t>91400A257</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
@@ -6150,22 +6122,22 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51958-59B, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-59, NASM51958</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>90988A101</t>
+          <t>91400A821</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6178,7 +6150,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6208,22 +6180,22 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-60, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, MS51958-59B, NASM51958</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>91400A825</t>
+          <t>90988A101</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6236,7 +6208,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6266,7 +6238,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-61, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-60, NASM51958</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6276,12 +6248,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>91400A827</t>
+          <t>91400A825</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6324,22 +6296,22 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51958-61B, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-61, NASM51958</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>90988A103</t>
+          <t>91400A827</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6352,7 +6324,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6382,22 +6354,22 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-62, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, MS51958-61B, NASM51958</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>91400A828</t>
+          <t>90988A103</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6410,7 +6382,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6440,7 +6412,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-63, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-62, NASM51958</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -6450,12 +6422,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>91400A829</t>
+          <t>91400A828</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6498,22 +6470,22 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51958-63B, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-63, NASM51958</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>90988A105</t>
+          <t>91400A829</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6526,7 +6498,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6556,22 +6528,22 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-64, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, MS51958-63B, NASM51958</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>91400A830</t>
+          <t>90988A105</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6584,7 +6556,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6614,22 +6586,22 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-65, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-64, NASM51958</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>91400A831</t>
+          <t>91400A830</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6672,22 +6644,22 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51958-65B, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-65, NASM51958</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>90988A107</t>
+          <t>91400A831</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6700,7 +6672,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6730,22 +6702,22 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-66, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, MS51958-65B, NASM51958</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>91400A832</t>
+          <t>90988A107</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6758,7 +6730,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6788,7 +6760,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-67, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-66, NASM51958</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6798,12 +6770,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>91400A833</t>
+          <t>91400A832</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6846,22 +6818,22 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51958-67B, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-67, NASM51958</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>90988A109</t>
+          <t>91400A833</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6874,7 +6846,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6904,22 +6876,22 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-68, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, MS51958-67B, NASM51958</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>91400A836</t>
+          <t>90988A109</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6932,7 +6904,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6962,7 +6934,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-69, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-68, NASM51958</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6972,12 +6944,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>91400A838</t>
+          <t>91400A836</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6990,7 +6962,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7020,22 +6992,22 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-71, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-69, NASM51958</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>91400A841</t>
+          <t>91400A838</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7048,7 +7020,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7058,17 +7030,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7078,27 +7050,27 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-76</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-71, NASM51958</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>91400A535</t>
+          <t>91400A841</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>19.30</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
@@ -7106,7 +7078,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7136,7 +7108,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-77</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-76</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7146,12 +7118,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>91400A536</t>
+          <t>91400A535</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>13.83</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7164,7 +7136,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7194,7 +7166,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-79</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-77</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7204,12 +7176,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>91400A537</t>
+          <t>91400A536</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7252,22 +7224,22 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-79B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-79</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>90988A252</t>
+          <t>91400A537</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7280,7 +7252,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7310,22 +7282,22 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-80</t>
+          <t>Fed. Spec. FF-S-92, MS51957-79B</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>91400A539</t>
+          <t>90988A252</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>24.29</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7338,7 +7310,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7368,7 +7340,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-81</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-80</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -7378,12 +7350,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>91400A540</t>
+          <t>91400A539</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>29.44</t>
+          <t>24.29</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7426,22 +7398,22 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-81B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-81</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>90988A254</t>
+          <t>91400A540</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>29.44</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7454,7 +7426,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7484,22 +7456,22 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-82</t>
+          <t>Fed. Spec. FF-S-92, MS51957-81B</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>91400A541</t>
+          <t>90988A254</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7512,7 +7484,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7542,7 +7514,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-83</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-82</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7552,7 +7524,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>91400A542</t>
+          <t>91400A541</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7600,22 +7572,22 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS51957-83B</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-83</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>90988A256</t>
+          <t>91400A542</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7628,7 +7600,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7658,22 +7630,22 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-84</t>
+          <t>Fed. Spec. FF-S-92, MS51957-83B</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>91400A544</t>
+          <t>90988A256</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7686,7 +7658,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7716,7 +7688,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-85</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-84</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7726,12 +7698,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>91400A546</t>
+          <t>91400A544</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -7744,7 +7716,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7774,7 +7746,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-87</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-85</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -7784,12 +7756,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>91400A548</t>
+          <t>91400A546</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7802,7 +7774,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7832,27 +7804,27 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-79, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-87</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>91400A850</t>
+          <t>91400A548</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="L128" t="inlineStr"/>
@@ -7860,7 +7832,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7890,7 +7862,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-80, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-79, NASM51958</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -7900,12 +7872,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>91400A851</t>
+          <t>91400A850</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -7918,7 +7890,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7948,22 +7920,22 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-81, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-80, NASM51958</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>91400A853</t>
+          <t>91400A851</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -7976,7 +7948,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8006,7 +7978,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-82, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-81, NASM51958</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -8016,12 +7988,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>91400A854</t>
+          <t>91400A853</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>18.86</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8034,7 +8006,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8064,7 +8036,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-83, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-82, NASM51958</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -8074,12 +8046,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>91400A856</t>
+          <t>91400A854</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>12.57</t>
+          <t>18.86</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8092,7 +8064,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8122,7 +8094,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-84, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-83, NASM51958</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -8132,12 +8104,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>91400A859</t>
+          <t>91400A856</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8150,7 +8122,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8180,7 +8152,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-85, NASM51958</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-84, NASM51958</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -8190,12 +8162,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>91400A862</t>
+          <t>91400A859</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>32.75</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8208,7 +8180,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8218,17 +8190,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.615"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.218"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -8238,7 +8210,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-94</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51958-85, NASM51958</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -8248,17 +8220,17 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>91400A903</t>
+          <t>91400A862</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>12.57</t>
+          <t>32.75</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="L135" t="inlineStr"/>
@@ -8266,7 +8238,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8296,7 +8268,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-96</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-94</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8306,12 +8278,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>91400A904</t>
+          <t>91400A903</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>12.74</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -8324,7 +8296,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8354,7 +8326,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-98</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-96</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -8364,12 +8336,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>91400A905</t>
+          <t>91400A904</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>13.93</t>
+          <t>12.74</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -8382,7 +8354,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -8412,7 +8384,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-100</t>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-98</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -8422,12 +8394,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>91400A906</t>
+          <t>91400A905</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>13.93</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8440,60 +8412,118 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0.615"</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.218"</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-100</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>91400A906</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>2"</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>0.615"</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>0.218"</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>No. 4</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>Fed. Spec. FF-S-92, Fed. Spec. QQ-P-35, MS51957-102</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>91400A907</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>12.51</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
